--- a/simulations/scene/inputs/Scenarios_25-08-05.xlsx
+++ b/simulations/scene/inputs/Scenarios_25-08-05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp45613\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE786A-5E05-47F1-A1F2-EEE0E593597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118031E0-7B9A-4D61-8585-F17E5544E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="597">
   <si>
     <t>input_file</t>
   </si>
@@ -1819,6 +1819,12 @@
   </si>
   <si>
     <t>Before</t>
+  </si>
+  <si>
+    <t>synchronize_adventitious_emergence</t>
+  </si>
+  <si>
+    <t>Tells wether root system should listen to shoot for synchronization of nodal roots emergence</t>
   </si>
 </sst>
 </file>
@@ -2889,13 +2895,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ229"/>
+  <dimension ref="A1:BZ230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="P189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U192" sqref="U192"/>
+      <selection pane="bottomRight" activeCell="R220" sqref="R220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32939,11 +32945,11 @@
         <v>0.3</v>
       </c>
       <c r="R206" s="44">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="S206" s="58"/>
       <c r="T206" s="44">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="V206" s="44">
         <v>0.3</v>
@@ -34726,16 +34732,16 @@
         <v>2E-8</v>
       </c>
       <c r="R218" s="44">
-        <f>0.00001 / 2</f>
-        <v>5.0000000000000004E-6</v>
+        <f>0.00001 / 2 / 2</f>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="S218" s="44">
         <f>0.00001</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="T218" s="44">
-        <f>0.00001 / 2</f>
-        <v>5.0000000000000004E-6</v>
+        <f>0.00001 / 2 / 2</f>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="V218" s="44">
         <v>2E-8</v>
@@ -34943,16 +34949,16 @@
       <c r="O220" s="44"/>
       <c r="P220" s="44"/>
       <c r="R220" s="44">
-        <f>0.00001 /10/4</f>
-        <v>2.5000000000000004E-7</v>
+        <f>0.00001 /10/4 / 2</f>
+        <v>1.2500000000000002E-7</v>
       </c>
       <c r="S220" s="44">
         <f>0.00001 /10/4/2</f>
         <v>1.2500000000000002E-7</v>
       </c>
       <c r="T220" s="44">
-        <f>0.00001 /10/4</f>
-        <v>2.5000000000000004E-7</v>
+        <f>0.00001 /10/4 /2</f>
+        <v>1.2500000000000002E-7</v>
       </c>
       <c r="V220" s="44"/>
       <c r="W220" s="44"/>
@@ -36128,7 +36134,7 @@
         <v>539</v>
       </c>
       <c r="G228" s="44">
-        <f t="shared" ref="G228:BC229" si="27">0.00002 / 14 / 5</f>
+        <f t="shared" ref="G228:BC230" si="27">0.00002 / 14 / 5</f>
         <v>2.8571428571428575E-7</v>
       </c>
       <c r="H228" s="44">
@@ -36316,7 +36322,7 @@
         <v>539</v>
       </c>
       <c r="G229" s="44">
-        <f t="shared" ref="G229:AZ229" si="28">0.00002 / 14 / 5 /10</f>
+        <f t="shared" ref="G229:AZ230" si="28">0.00002 / 14 / 5 /10</f>
         <v>2.8571428571428575E-8</v>
       </c>
       <c r="H229" s="44">
@@ -36484,6 +36490,167 @@
       <c r="BJ229" s="1"/>
       <c r="BK229" s="1"/>
     </row>
+    <row r="230" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="G230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="H230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="I230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="J230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="K230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="L230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="M230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="N230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="O230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="P230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="R230" s="44">
+        <v>0</v>
+      </c>
+      <c r="S230" s="58"/>
+      <c r="T230" s="44">
+        <v>0</v>
+      </c>
+      <c r="V230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="W230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="X230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AA230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AB230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AC230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AD230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AE230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AF230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AG230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AH230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AI230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AJ230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AK230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AL230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AM230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AN230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AO230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AP230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AQ230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AR230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AS230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AT230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AU230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AV230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AW230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AX230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AY230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="AZ230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="BA230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="BB230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="BC230" s="44">
+        <v>-1</v>
+      </c>
+      <c r="BD230" s="1"/>
+      <c r="BE230" s="1"/>
+      <c r="BF230" s="1"/>
+      <c r="BG230" s="1"/>
+      <c r="BH230" s="1"/>
+      <c r="BI230" s="1"/>
+      <c r="BJ230" s="1"/>
+      <c r="BK230" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G211:P211 BC211 V211:X211 R211:T212">
@@ -56878,7 +57045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC228:BC229 AA228:AD229 G228:P229 V228:X229 R228:T229">
+  <conditionalFormatting sqref="BC228:BC229 AA228:AD229 R228:T230 G228:P230 V228:X230 AA230:BC230">
     <cfRule type="colorScale" priority="3308">
       <colorScale>
         <cfvo type="min"/>

--- a/simulations/scene/inputs/Scenarios_25-08-05.xlsx
+++ b/simulations/scene/inputs/Scenarios_25-08-05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp49428\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp36339\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3D61D-3C87-4602-AC97-6FEABB837F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB04A1-9C28-4BFC-8603-2D8EF6C137B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36360" yWindow="-26028" windowWidth="46296" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_as_columns" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="609">
   <si>
     <t>input_file</t>
   </si>
@@ -1854,10 +1854,13 @@
     <t>/10</t>
   </si>
   <si>
-    <t>Pmax/50 x10</t>
-  </si>
-  <si>
-    <t>x4</t>
+    <t>/5</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>x4*2</t>
   </si>
 </sst>
 </file>
@@ -2931,10 +2934,10 @@
   <dimension ref="A1:BU236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M128" sqref="M128"/>
+      <selection pane="bottomRight" activeCell="M220" sqref="M220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19360,8 +19363,8 @@
         <v>5E-15</v>
       </c>
       <c r="M128" s="44">
-        <f>0.0000000000005</f>
-        <v>4.9999999999999999E-13</v>
+        <f>0.0000000000005 / 100</f>
+        <v>5E-15</v>
       </c>
       <c r="O128" s="44">
         <f>0.00000000000003/2/2/2</f>
@@ -23777,7 +23780,11 @@
         <v>2.4999999999999998E-12</v>
       </c>
       <c r="M163" s="44">
-        <v>2.4999999999999998E-12</v>
+        <f>0.0000000000025/5</f>
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="O163" s="44">
         <v>2.4999999999999998E-12</v>
@@ -30500,11 +30507,11 @@
         <v>4.9999999999999995E-14</v>
       </c>
       <c r="M215" s="44">
-        <f>0.0000000000025/50 * 10</f>
+        <f>M163</f>
         <v>4.9999999999999999E-13</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O215" s="44">
         <f>0.0000000000025/50</f>
@@ -30642,8 +30649,8 @@
         <v>5.0000000000000002E-11</v>
       </c>
       <c r="M216" s="44">
-        <f>0.00000000005/ 10*10</f>
-        <v>5.0000000000000008E-11</v>
+        <f>0.00000000005*10</f>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="O216" s="44">
         <f>0.00000000005*2 / 10 / 2</f>
@@ -30809,7 +30816,7 @@
       </c>
       <c r="M217" s="44">
         <f>M216*3</f>
-        <v>1.5000000000000002E-10</v>
+        <v>1.5000000000000002E-9</v>
       </c>
       <c r="O217" s="44">
         <f>0.00000000005*2 / 10 / 2</f>
@@ -31143,11 +31150,11 @@
         <v>6E-11</v>
       </c>
       <c r="M220" s="44">
-        <f>0.000001 / 10000 *2 * 3/10 * 2*2</f>
-        <v>2.4E-10</v>
+        <f>0.000001 / 10000 *2 * 3/10 *4 * 10</f>
+        <v>2.4E-9</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O220" s="44">
         <f>0.000001 / 10000 *2 * 3</f>
@@ -31288,8 +31295,8 @@
         <v>2.4999999999999999E-13</v>
       </c>
       <c r="M221" s="44">
-        <f>0.000001 / 10000 / 4 /10</f>
-        <v>2.4999999999999998E-12</v>
+        <f>0.000001 / 10000 / 4 / 10/10</f>
+        <v>2.4999999999999999E-13</v>
       </c>
       <c r="N221" s="1" t="s">
         <v>605</v>
@@ -32658,8 +32665,8 @@
         <v>1E-8</v>
       </c>
       <c r="M231" s="44">
-        <f>0.000000005 / 5*2</f>
-        <v>2.0000000000000001E-9</v>
+        <f>0.000000005 / 5 *10</f>
+        <v>1E-8</v>
       </c>
       <c r="O231" s="44">
         <f t="shared" si="18"/>
@@ -33226,8 +33233,8 @@
         <v>6.2615955473098323E-16</v>
       </c>
       <c r="M235" s="44">
-        <f>M128* (6 * 12 / 0.44) * 0.015 / 14 / 1.4</f>
-        <v>6.261595547309833E-14</v>
+        <f>M128* (6 * 12 / 0.44) * 0.0173 / 14 / 1.4</f>
+        <v>7.2217068645640066E-16</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>599</v>
@@ -33360,8 +33367,8 @@
         <v>2.7777777777777777E-10</v>
       </c>
       <c r="M236" s="44">
-        <f>0.000001/3600/10</f>
-        <v>2.7777777777777777E-11</v>
+        <f>0.000001/3600/10/10</f>
+        <v>2.7777777777777777E-12</v>
       </c>
       <c r="O236" s="44">
         <f>O130* 6 * 12 / 0.44 * 0.015 / 14 / 1.4 /2/2/2</f>

--- a/simulations/scene/inputs/Scenarios_25-08-05.xlsx
+++ b/simulations/scene/inputs/Scenarios_25-08-05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp36339\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tigerault\Wheat-BRIDGES_framework\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB04A1-9C28-4BFC-8603-2D8EF6C137B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13A5AC-8521-49D2-AE14-3D8C7525F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36360" yWindow="-26028" windowWidth="46296" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-5844" windowWidth="46296" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_as_columns" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="608">
   <si>
     <t>input_file</t>
   </si>
@@ -1851,16 +1851,13 @@
     <t>WB_debug2</t>
   </si>
   <si>
-    <t>/10</t>
-  </si>
-  <si>
     <t>/5</t>
   </si>
   <si>
     <t>Pmax</t>
   </si>
   <si>
-    <t>x4*2</t>
+    <t>x10</t>
   </si>
 </sst>
 </file>
@@ -2934,10 +2931,10 @@
   <dimension ref="A1:BU236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M220" sqref="M220"/>
+      <selection pane="bottomRight" activeCell="N240" sqref="N240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19363,8 +19360,8 @@
         <v>5E-15</v>
       </c>
       <c r="M128" s="44">
-        <f>0.0000000000005 / 100</f>
-        <v>5E-15</v>
+        <f>0.0000000000005 / 10 / 3</f>
+        <v>1.6666666666666667E-14</v>
       </c>
       <c r="O128" s="44">
         <f>0.00000000000003/2/2/2</f>
@@ -23784,7 +23781,7 @@
         <v>4.9999999999999999E-13</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O163" s="44">
         <v>2.4999999999999998E-12</v>
@@ -30511,7 +30508,7 @@
         <v>4.9999999999999999E-13</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O215" s="44">
         <f>0.0000000000025/50</f>
@@ -30649,8 +30646,8 @@
         <v>5.0000000000000002E-11</v>
       </c>
       <c r="M216" s="44">
-        <f>0.00000000005*10</f>
-        <v>5.0000000000000003E-10</v>
+        <f>0.00000000005</f>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="O216" s="44">
         <f>0.00000000005*2 / 10 / 2</f>
@@ -30815,8 +30812,8 @@
         <v>1.6666666666666667E-11</v>
       </c>
       <c r="M217" s="44">
-        <f>M216*3</f>
-        <v>1.5000000000000002E-9</v>
+        <f>0.00000000005</f>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="O217" s="44">
         <f>0.00000000005*2 / 10 / 2</f>
@@ -30979,7 +30976,6 @@
         <v>0</v>
       </c>
       <c r="M218" s="44">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="O218" s="44">
@@ -31150,11 +31146,11 @@
         <v>6E-11</v>
       </c>
       <c r="M220" s="44">
-        <f>0.000001 / 10000 *2 * 3/10 *4 * 10</f>
-        <v>2.4E-9</v>
+        <f>0.000001 / 10000 / 4 / 10 /5 * 0.66</f>
+        <v>3.3000000000000001E-13</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O220" s="44">
         <f>0.000001 / 10000 *2 * 3</f>
@@ -31295,11 +31291,8 @@
         <v>2.4999999999999999E-13</v>
       </c>
       <c r="M221" s="44">
-        <f>0.000001 / 10000 / 4 / 10/10</f>
-        <v>2.4999999999999999E-13</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>605</v>
+        <f>0.000001 / 10000 / 4 / 10</f>
+        <v>2.4999999999999998E-12</v>
       </c>
       <c r="O221" s="44">
         <f>0.000001 / 10000 / 4 / 10</f>
@@ -31439,7 +31432,8 @@
         <v>0</v>
       </c>
       <c r="M222" s="44">
-        <v>0</v>
+        <f>0.00001 / 10 / 2 / 5 * 0.66</f>
+        <v>6.6000000000000022E-8</v>
       </c>
       <c r="O222" s="44">
         <f>0.00001 / 10/2/4</f>
@@ -31664,7 +31658,8 @@
         <v>0</v>
       </c>
       <c r="M224" s="44">
-        <v>0</v>
+        <f>0.00001 /5 /2/4</f>
+        <v>2.5000000000000004E-7</v>
       </c>
       <c r="O224" s="44">
         <f>0.00001 /5 /2/4</f>
@@ -32737,10 +32732,10 @@
         <v>473</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>483</v>
+        <v>580</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="E232" s="30" t="s">
         <v>537</v>
@@ -32899,10 +32894,10 @@
         <v>473</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>483</v>
+        <v>580</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="E233" s="30" t="s">
         <v>537</v>
@@ -33234,7 +33229,7 @@
       </c>
       <c r="M235" s="44">
         <f>M128* (6 * 12 / 0.44) * 0.0173 / 14 / 1.4</f>
-        <v>7.2217068645640066E-16</v>
+        <v>2.407235621521336E-15</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>599</v>

--- a/simulations/scene/inputs/Scenarios_25-08-05.xlsx
+++ b/simulations/scene/inputs/Scenarios_25-08-05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tigerault\Wheat-BRIDGES_framework\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13A5AC-8521-49D2-AE14-3D8C7525F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A099200-F0DC-413B-AEBB-FA17A6FA7157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46188" yWindow="-5844" windowWidth="46296" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2931,10 +2931,10 @@
   <dimension ref="A1:BU236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N240" sqref="N240"/>
+      <selection pane="bottomRight" activeCell="N246" sqref="N246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19360,8 +19360,8 @@
         <v>5E-15</v>
       </c>
       <c r="M128" s="44">
-        <f>0.0000000000005 / 10 / 3</f>
-        <v>1.6666666666666667E-14</v>
+        <f>0.0000000000005/100</f>
+        <v>5E-15</v>
       </c>
       <c r="O128" s="44">
         <f>0.00000000000003/2/2/2</f>
@@ -19491,8 +19491,8 @@
         <v>1.388888888888889E-9</v>
       </c>
       <c r="M129" s="44">
-        <f>0.000005/3600/10</f>
-        <v>1.3888888888888891E-10</v>
+        <f>0.000005/3600/100</f>
+        <v>1.388888888888889E-11</v>
       </c>
       <c r="O129" s="44">
         <f>0.00000000000003/2/2/2</f>
@@ -30646,8 +30646,8 @@
         <v>5.0000000000000002E-11</v>
       </c>
       <c r="M216" s="44">
-        <f>0.00000000005</f>
-        <v>5.0000000000000002E-11</v>
+        <f>0.00000000005 *2</f>
+        <v>1E-10</v>
       </c>
       <c r="O216" s="44">
         <f>0.00000000005*2 / 10 / 2</f>
@@ -30812,8 +30812,8 @@
         <v>1.6666666666666667E-11</v>
       </c>
       <c r="M217" s="44">
-        <f>0.00000000005</f>
-        <v>5.0000000000000002E-11</v>
+        <f>M216/10/4</f>
+        <v>2.5000000000000003E-12</v>
       </c>
       <c r="O217" s="44">
         <f>0.00000000005*2 / 10 / 2</f>
@@ -30976,7 +30976,8 @@
         <v>0</v>
       </c>
       <c r="M218" s="44">
-        <v>0</v>
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="O218" s="44">
         <f>0</f>
@@ -31146,8 +31147,8 @@
         <v>6E-11</v>
       </c>
       <c r="M220" s="44">
-        <f>0.000001 / 10000 / 4 / 10 /5 * 0.66</f>
-        <v>3.3000000000000001E-13</v>
+        <f>0.000001 / 10000 / 4 / 10 /5  / 5</f>
+        <v>1E-13</v>
       </c>
       <c r="N220" s="1" t="s">
         <v>607</v>
@@ -31291,8 +31292,7 @@
         <v>2.4999999999999999E-13</v>
       </c>
       <c r="M221" s="44">
-        <f>0.000001 / 10000 / 4 / 10</f>
-        <v>2.4999999999999998E-12</v>
+        <v>0</v>
       </c>
       <c r="O221" s="44">
         <f>0.000001 / 10000 / 4 / 10</f>
@@ -31432,8 +31432,8 @@
         <v>0</v>
       </c>
       <c r="M222" s="44">
-        <f>0.00001 / 10 / 2 / 5 * 0.66</f>
-        <v>6.6000000000000022E-8</v>
+        <f>0.00001 / 10 / 2 / 5 /5</f>
+        <v>2.0000000000000004E-8</v>
       </c>
       <c r="O222" s="44">
         <f>0.00001 / 10/2/4</f>
@@ -31658,8 +31658,8 @@
         <v>0</v>
       </c>
       <c r="M224" s="44">
-        <f>0.00001 /5 /2/4</f>
-        <v>2.5000000000000004E-7</v>
+        <f>0.00001 /5 /2/4 * 4 * 0.6 * 10*2</f>
+        <v>1.2000000000000002E-5</v>
       </c>
       <c r="O224" s="44">
         <f>0.00001 /5 /2/4</f>
@@ -32506,8 +32506,8 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M230" s="44">
-        <f>0.00001 / 2 * 10</f>
-        <v>5.0000000000000002E-5</v>
+        <f>0.00001 / 2 * 10 /2 / 3 / 3 / 3</f>
+        <v>9.2592592592592594E-7</v>
       </c>
       <c r="O230" s="44">
         <f>0.00001 / 2</f>
@@ -32660,8 +32660,8 @@
         <v>1E-8</v>
       </c>
       <c r="M231" s="44">
-        <f>0.000000005 / 5 *10</f>
-        <v>1E-8</v>
+        <f>0.000000005 / 5 *10 / 2 / 3 / 2 / 2</f>
+        <v>4.1666666666666668E-10</v>
       </c>
       <c r="O231" s="44">
         <f t="shared" si="18"/>
@@ -33228,8 +33228,8 @@
         <v>6.2615955473098323E-16</v>
       </c>
       <c r="M235" s="44">
-        <f>M128* (6 * 12 / 0.44) * 0.0173 / 14 / 1.4</f>
-        <v>2.407235621521336E-15</v>
+        <f>0.0000000000005* (6 * 12 / 0.44) * 0.0173 / 14 / 1.4 / 10 / 2</f>
+        <v>3.6108534322820035E-15</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>599</v>
